--- a/Game Experience.xlsx
+++ b/Game Experience.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD Student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\SHVFS\Job\github\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Single Player Games " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>180h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,9 +320,6 @@
     <t>35h</t>
   </si>
   <si>
-    <t>shapez</t>
-  </si>
-  <si>
     <t>PLAY SPAN</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>Lv50 with all equipments +12</t>
   </si>
   <si>
-    <t>5000 trophies</t>
-  </si>
-  <si>
     <t>All characters and skins</t>
   </si>
   <si>
@@ -368,18 +362,9 @@
     <t>Roguelike/Shooting</t>
   </si>
   <si>
-    <t>CARROT FANASY 2</t>
-  </si>
-  <si>
-    <t>CARROT FANASY 3</t>
-  </si>
-  <si>
     <t>1 year</t>
   </si>
   <si>
-    <t>3 years</t>
-  </si>
-  <si>
     <t>5 years</t>
   </si>
   <si>
@@ -410,14 +395,38 @@
     <t>135h</t>
   </si>
   <si>
-    <t>65h</t>
+    <t>6 years</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>6300 trophies</t>
+  </si>
+  <si>
+    <t>shapez.io</t>
+  </si>
+  <si>
+    <t>90h</t>
+  </si>
+  <si>
+    <t>Brotato</t>
+  </si>
+  <si>
+    <t>45h</t>
+  </si>
+  <si>
+    <t>CARROT FANTASY 2</t>
+  </si>
+  <si>
+    <t>CARROT FANTASY 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,13 +448,51 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -530,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,16 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -562,7 +600,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,6 +634,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6699"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -845,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,29 +929,29 @@
     <col min="5" max="5" width="30.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -896,7 +965,7 @@
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -913,7 +982,7 @@
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="5">
         <v>0.67</v>
       </c>
       <c r="E4" s="1"/>
@@ -928,7 +997,7 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="5">
         <v>0.88</v>
       </c>
       <c r="E5" s="1"/>
@@ -943,7 +1012,7 @@
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="1"/>
@@ -958,52 +1027,52 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="5">
         <v>0.91</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="11">
+        <v>114</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="11">
+        <v>55</v>
+      </c>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="11">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
@@ -1018,7 +1087,7 @@
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="5">
         <v>0.56999999999999995</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1044,31 +1113,31 @@
     </row>
     <row r="13" spans="1:5" ht="15.95" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.87</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.95" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.87</v>
+        <v>112</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1082,7 +1151,7 @@
       <c r="C15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="5">
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
@@ -1097,7 +1166,7 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="1"/>
@@ -1112,7 +1181,7 @@
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="5">
         <v>0.55000000000000004</v>
       </c>
       <c r="E17" s="1"/>
@@ -1125,371 +1194,386 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0.8</v>
+        <v>119</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="15.95" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.89</v>
+        <v>121</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="15.95" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15.95" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.95" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.9</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="15.95" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="11">
+        <v>36</v>
+      </c>
+      <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="15.95" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="15.95" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0.85</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="15.95" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.95" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0.65</v>
+        <v>11</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.55000000000000004</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="15.95" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0.71</v>
+        <v>9</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.65</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="15.95" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="11">
-        <v>1</v>
+      <c r="D29" s="5">
+        <v>0.71</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="15.95" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" s="9" customFormat="1">
+      <c r="A35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="5">
         <v>0.5</v>
       </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.75">
-      <c r="A38" s="8" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75">
+      <c r="A39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" s="9" customFormat="1">
+      <c r="A40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="5">
         <v>0.8</v>
       </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" ht="18.75">
-      <c r="A43" s="5" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" ht="18.75">
+      <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="5">
         <v>1</v>
       </c>
-      <c r="E45" s="1"/>
+      <c r="E46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A42:E43"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A31:E32"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A37:E38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1501,14 +1585,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="23.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="3" customWidth="1"/>
@@ -1516,38 +1599,38 @@
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.95" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.95" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1">
         <v>2015</v>
@@ -1556,40 +1639,40 @@
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.95" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2019</v>
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="E3" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.95" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1">
         <v>2019</v>
@@ -1598,19 +1681,19 @@
         <v>300</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.95" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1">
         <v>2016</v>
@@ -1618,20 +1701,20 @@
       <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.95" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1">
         <v>2017</v>
@@ -1639,20 +1722,20 @@
       <c r="E6" s="1">
         <v>500</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.95" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1">
         <v>2019</v>
@@ -1667,13 +1750,13 @@
     </row>
     <row r="8" spans="1:7" ht="15.95" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1">
         <v>2023</v>
@@ -1685,18 +1768,18 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.95" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1">
         <v>2023</v>
